--- a/data/carimo_products_1.xlsx
+++ b/data/carimo_products_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projets\carimo_dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projets\carimo_dashboard_omnisport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA85D4EB-E947-4753-8400-6A33940DAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0A239-0F77-4EAE-8CD1-6FFCCF2ABCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C6499828-7C5E-467E-95E7-0B40AC5EF797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C6499828-7C5E-467E-95E7-0B40AC5EF797}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
   <si>
     <t>GAMME</t>
   </si>
@@ -327,9 +327,6 @@
     <t>gel douche brillance plus</t>
   </si>
   <si>
-    <t>lait corps  24k gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">lotion visage  24k </t>
   </si>
   <si>
@@ -433,6 +430,12 @@
   </si>
   <si>
     <t>hammam</t>
+  </si>
+  <si>
+    <t>mousse carimo</t>
+  </si>
+  <si>
+    <t>lait corps  24k</t>
   </si>
 </sst>
 </file>
@@ -921,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EA97B5-9F8B-4B8E-86E0-4B3DA7D1D631}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -966,7 +969,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -994,7 +997,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1033,7 +1036,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1047,7 +1050,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1061,7 +1064,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D112">
         <v>10000</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113">
         <v>5000</v>
@@ -2103,10 +2106,18 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>131</v>
       </c>
-      <c r="D114">
-        <v>5000</v>
+      <c r="D115">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
